--- a/Others/Note_MonitoringMongoDB.xlsx
+++ b/Others/Note_MonitoringMongoDB.xlsx
@@ -7,27 +7,23 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="MonitoringMongoDB" sheetId="1" r:id="rId1"/>
+    <sheet name="Index" sheetId="4" r:id="rId1"/>
+    <sheet name="ServerStatus" sheetId="1" r:id="rId2"/>
+    <sheet name="HostInfo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
   <si>
     <t>Note monitoring Mongodb (issue #386)</t>
   </si>
   <si>
-    <t>1. Get infomation of server</t>
-  </si>
-  <si>
     <t>with command mongodb: db.serverStatus()</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
     <t>&gt; total (number): Total of operations queued waiting for the lock.</t>
   </si>
   <si>
@@ -181,41 +177,194 @@
     <t xml:space="preserve"> + mappedWithJournal (MB): The amount of mapped memory, in megabytes (MB), including the memory used for journaling. This value will always be twice the value of mapped.</t>
   </si>
   <si>
-    <t>2. Get information of database</t>
-  </si>
-  <si>
-    <t>with command mongodb: db.stat()</t>
-  </si>
-  <si>
-    <t>......................</t>
-  </si>
-  <si>
-    <t>A list of existing databases along with basic statistics about them with command mongodb: db.runCommand( { listDatabases: 1 } )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + name (string): The database name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + sizeOnDisk (number): The total size of the database file on disk in bytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + empty (boolean): Specifying whether the database has any data.</t>
-  </si>
-  <si>
-    <t>3. Get status of the replica</t>
-  </si>
-  <si>
-    <t>4. Get list database info in mongodb</t>
-  </si>
-  <si>
-    <t>with command mongodb: rs.status()</t>
+    <t xml:space="preserve"> - uptime (second):  the number of the mongos or mongod process has been active.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - localTime (datetime): the current time, according to the server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - version (string): the version field contains the version of MongoDB running on the current mongod or mongos instance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - host (string): the host field contains the system’s hostname.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - process (string): the process field identifies which kind of MongoDB instance is running (mongos, mongod).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - cursors: current cursor use and state</t>
+  </si>
+  <si>
+    <t>1. Monitoring information of server</t>
+  </si>
+  <si>
+    <t>2. Monitoring host information</t>
+  </si>
+  <si>
+    <t>Monitoring information of server</t>
+  </si>
+  <si>
+    <t>MongoDB.ServerStatus.GeneralInfo</t>
+  </si>
+  <si>
+    <t>MongoDB.ServerStatus.IOStats</t>
+  </si>
+  <si>
+    <t>MongoDB.ServerStatus.NetworkStats</t>
+  </si>
+  <si>
+    <t>MongoDB.ServerStatus.LockInfo</t>
+  </si>
+  <si>
+    <t>MongoDB.ServerStatus.ActivitesStats</t>
+  </si>
+  <si>
+    <t>MongoDB.ServerStatus.MemoryInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - extra_info: platform specific information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - pid (number):  id of process</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + note (string): reports that the data in this structure depend on the underlying platform, and has the text: “fields vary by platform.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + heap_usage_bytes (bytes): only available on Unix/Linux systems, and reports the total size in bytes of heap space used by the database process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + page_faults (number): the total number of page faults that require disk operations. Page faults refer to operations that require the database server to access data which isn’t available in active memory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + &lt;database&gt;:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + local:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - recordStats: reports data on MongoDB’s ability to predict page faults and yield write operations when required data isn’t in memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + accessesNotInMemory (number): the number of times mongod needed to access a memory page that was not resident in memory for all databases managed by this mongod instance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + pageFaultExceptionsThrown (page): the number of page fault exceptions thrown by mongod when accessing data for all databases managed by this mongod instance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; accessesNotInMemory (number): the number of times mongod needed to access a memory page that was not resident in memory for the local database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; pageFaultExceptionsThrown (page): the number of page fault exceptions thrown by mongod when accessing data for the local database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; accessesNotInMemory (number): the number of times mongod needed to access a memory page that was not resident in memory for the &lt;database&gt; database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; pageFaultExceptionsThrown (page): the number of page fault exceptions thrown by mongod when accessing data for the &lt;database&gt; database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + totalOpen (number) : the number of cursors that MongoDB is maintaining for clients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + clientCursors_size (number): the size of cursors used by client</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + timedOut (number): the total number of cursors that have timed out since the server process started. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - dur: contains data regarding the mongod‘s journaling-related operations and performance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + commits (number): the number of transactions written to the journal during the last journal group commit interval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + journaledMB (MB): the amount of data in megabytes (MB) written to journal during the last journal group commit interval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + writeToDataFilesMB (MB): the amount of data in megabytes (MB) written from journal to the data files during the last journal group commit interval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + compression (number): the compression ratio of the data written to the journal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + commitsInWriteLock (number): a count of the commits that occurred while a write lock was held.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + earlyCommits (number): the number of times MongoDB requested a commit before the scheduled journal group commit interval. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + timeMs: information about the performance of the mongod instance during the various phases of journaling in the last journal group commit interval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; dt (ms): the amount of time over which MongoDB collected the timeMS data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; prepLogBuffer (ms): the amount of time spent preparing to write to the journal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; writeToJournal (ms): the amount of time spent actually writing to the journal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; writeToDataFiles (ms): the amount of time spent writing to data files after journaling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; remapPrivateView (ms): the amount of time spent remapping copy-on-write memory mapped views.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - opcountersRepl: Reports the number of replicated operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + insert (number): The total number of replicated insert operations since the mongod instance last started.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + query (number): The total number of replicated queries since the mongod instance last started.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + update (number): The total number of replicated update operations since the mongod instance last started.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + delete (number): The total number of replicated delete operations since the mongod instance last started.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + command (number): The total number of replicated commands issued to the database since the mongod instance last started.</t>
+  </si>
+  <si>
+    <t>http://docs.mongodb.org/v2.4/reference/command/serverStatus/#dbcmd.serverStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + document: document access and modification patterns and data use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + getLastError: Returns the error status of the preceding operation on the current connection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + operation: a sub-document that holds counters for several types of update and query operations that MongoDB handles using special operation types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + queryExecutor: reports data from the query execution system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + record: reports data related to record allocation in the on-disk memory files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + repl: a sub-document that reports metrics related to the replication process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ttl: (time to live)a sub-document that reports on the operation of the resource use of the ttl index process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - metrics: The metrics document holds a number of statistics that reflect the current use and state of a running mongod instance.</t>
+  </si>
+  <si>
+    <t>Monitoring host information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +399,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,17 +432,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -571,351 +742,699 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F79"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="16.5">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" location="ServerStatus!B2" display="1. Monitoring information of server"/>
+    <hyperlink ref="C6" location="HostInfo!B2" display="2. Monitoring host information"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="16.5">
+    <row r="2" spans="2:8" ht="16.5">
       <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="D5" s="4" t="s">
+      <c r="H3" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="D8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="D10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="E23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="D25" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="E26" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="E27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="E28" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="D30" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="E31" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="E32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="E33" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="E34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="E35" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="D38" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="E39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="E40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="E41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="E42" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="E43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="D45" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="E46" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="E47" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="E48" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="F49" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="F50" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="E51" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="F52" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="F53" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="D56" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="E57" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="E58" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="E59" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="D61" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="E62" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="E63" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="E64" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="D66" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="D67" s="4"/>
+      <c r="E67" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68" s="4"/>
+      <c r="E68" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="D69" s="4"/>
+      <c r="E69" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="D71" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6">
+      <c r="D72" s="4"/>
+      <c r="E72" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6">
+      <c r="D73" s="4"/>
+      <c r="E73" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6">
+      <c r="D74" s="4"/>
+      <c r="E74" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6">
+      <c r="D75" s="4"/>
+      <c r="E75" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6">
+      <c r="D76" s="4"/>
+      <c r="E76" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6">
+      <c r="D77" s="4"/>
+      <c r="E77" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6">
+      <c r="D78" s="4"/>
+      <c r="E78" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6">
+      <c r="D79" s="4"/>
+      <c r="F79" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6">
+      <c r="D80" s="4"/>
+      <c r="F80" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6">
+      <c r="D81" s="4"/>
+      <c r="F81" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="D82" s="4"/>
+      <c r="F82" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="D83" s="4"/>
+      <c r="F83" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="C85" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="D86" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="E87" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6">
+      <c r="E88" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="E89" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6">
+      <c r="F90" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="D7" s="4" t="s">
+    <row r="91" spans="3:6">
+      <c r="F91" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="F92" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="E94" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6">
+      <c r="F95" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6">
+      <c r="F96" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6">
+      <c r="F97" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6">
+      <c r="C99" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6">
+      <c r="D100" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6">
+      <c r="E101" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6">
+      <c r="E102" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6">
+      <c r="E103" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6">
+      <c r="E104" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6">
+      <c r="E105" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6">
+      <c r="E106" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6">
+      <c r="D108" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6">
+      <c r="E109" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6">
+      <c r="E110" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6">
+      <c r="E111" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6">
+      <c r="E112" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="E113" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="E114" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="C116" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="D117" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="E118" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="E119" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="E10" s="2" t="s">
+    <row r="120" spans="2:5">
+      <c r="E120" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="E121" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="E122" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="E11" s="2" t="s">
+    <row r="123" spans="2:5">
+      <c r="E123" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="E12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="E13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="D15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="E21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="E26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="E27" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6">
-      <c r="E28" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="F29" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="F30" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="F31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="E33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="F34" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="F35" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="F36" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6">
-      <c r="D38" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6">
-      <c r="E39" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="E40" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6">
-      <c r="E41" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6">
-      <c r="E42" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6">
-      <c r="E43" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6">
-      <c r="D45" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6">
-      <c r="E46" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6">
-      <c r="E47" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6">
-      <c r="E48" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5">
-      <c r="E49" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5">
-      <c r="E50" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5">
-      <c r="D52" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5">
-      <c r="E53" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5">
-      <c r="E54" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5">
-      <c r="E55" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5">
-      <c r="E56" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5">
-      <c r="E57" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5">
-      <c r="E58" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5">
-      <c r="D60" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="4:5">
-      <c r="E61" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="4:5">
-      <c r="E62" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="4:5">
-      <c r="E63" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="4:5">
-      <c r="E64" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5">
-      <c r="E65" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5">
-      <c r="C67" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5">
-      <c r="D68" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5">
-      <c r="D69" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5">
-      <c r="C71" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5">
-      <c r="D72" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5">
-      <c r="D73" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5">
-      <c r="C75" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5">
-      <c r="D76" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5">
-      <c r="D77" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5">
-      <c r="D78" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5">
-      <c r="D79" s="2" t="s">
-        <v>61</v>
+    <row r="125" spans="2:5">
+      <c r="D125" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="E126" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="1"/>
+      <c r="E127" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="C128" s="4"/>
+      <c r="E128" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="E129" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="E130" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="1"/>
+      <c r="E131" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="C132" s="4"/>
+      <c r="E132" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="C136" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" location="dbcmd.serverStatus"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="16.5">
+      <c r="B2" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Others/Note_MonitoringMongoDB.xlsx
+++ b/Others/Note_MonitoringMongoDB.xlsx
@@ -10,13 +10,15 @@
     <sheet name="Index" sheetId="4" r:id="rId1"/>
     <sheet name="ServerStatus" sheetId="1" r:id="rId2"/>
     <sheet name="HostInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="dbStats" sheetId="5" r:id="rId4"/>
+    <sheet name="collectionStats " sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="159">
   <si>
     <t>Note monitoring Mongodb (issue #386)</t>
   </si>
@@ -358,13 +360,184 @@
   </si>
   <si>
     <t>Monitoring host information</t>
+  </si>
+  <si>
+    <t>with command mongodb: db.hostInfo()</t>
+  </si>
+  <si>
+    <t>http://docs.mongodb.org/v2.4/reference/method/db.hostInfo/</t>
+  </si>
+  <si>
+    <t>version mongodb &gt; 2.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MongoDB.HostInfo.System </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(about the underlying environment of the system running the mongod or mongos)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - currentTime (datetime): the current system time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - hostname (string): The system name, which should correspond to the output of hostname -f on Linux systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - cpuAddrSize (number): A number reflecting the architecture of the system. Either 32 or 64.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - memSizeMB (MB): The total amount of system memory (RAM) in megabytes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - numCores (number): The total number of available logical processor cores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - cpuArch (string): A string that represents the system architecture. Either x86 or x86_64.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - numaEnabled (boolean): false if NUMA is interleaved (i.e. disabled), otherwise true.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - type (string): A string representing the type of operating system, such as Linux or Windows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - name (string): A display name for the operating system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - version (string): The name of the distribution or operating system.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MongoDB.HostInfo.Extra </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(extra information about the operating system and the underlying hardware)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MongoDB.HostInfo.OS </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(A sub-document that contains information about the operating system running the mongod and mongos)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - versionString (string): A complete string of the operating system version and identification. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - libcVersion (string): The release of the system libc. libcVersion only appears on Linux systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - kernelVersion (string): The release of the Linux kernel in current use. kernelVersion only appears on Linux systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - cpuFeatures (string): The processor feature flags. On Linux systems this the same information that /proc/cpuinfo includes in the flags fields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - cpuFrequencyMHz (string): The clock speed of the system’s processor in megahertz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - pageSize (bytes): the default system page size in bytes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - numPages (page): numPages only appears on Linux systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - maxOpenFiles (number): The current system limits on open file handles. maxOpenFiles only appears on Linux systems.</t>
+  </si>
+  <si>
+    <t>Monitoring statistics for a given database</t>
+  </si>
+  <si>
+    <t>3. Monitoring statistics for a given database</t>
+  </si>
+  <si>
+    <t>http://docs.mongodb.org/v2.4/reference/command/dbStats/#dbcmd.dbStats</t>
+  </si>
+  <si>
+    <t>with command mongodb: db.stats()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - db (string): the name of the database. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - collections (number): the number of collections in that database. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - objects (number): the number of objects in the database across all collections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - avgObjSize (bytes): The average size of each document in bytes. This is the dataSize divided by the number of documents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - dataSize (bytes): The total size in bytes of the data held in this database including the padding factor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - storageSize (bytes): The total amount of space in bytes allocated to collections in this database for document storage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - numExtents (number): the number of extents in the database across all collections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - indexes (number): the total number of indexes across all collections in the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - indexSize (bytes): The total size in bytes of all indexes created on this database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - fileSize (bytes): The total size in bytes of the data files that hold the database. This value includes preallocated space and the padding factor. The value of fileSize only reflects the size of the data files for the database and not the namespace file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - nsSizeMB (MB): The total size of the namespace files for this database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - dataFileVersion: information about the on-disk format of the data files for the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + minor (number): The minor version number for the on-disk format of the data files for the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + major (number): The major version number for the on-disk format of the data files for the database.</t>
+  </si>
+  <si>
+    <t>MongoDB.Statistics.DatabaseInfo</t>
+  </si>
+  <si>
+    <t>4. Monitoring statistics for a given collection</t>
+  </si>
+  <si>
+    <t>Monitoring statistics for a given collection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +587,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,7 +626,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -742,44 +922,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="16.5">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" location="ServerStatus!B2" display="1. Monitoring information of server"/>
     <hyperlink ref="C6" location="HostInfo!B2" display="2. Monitoring host information"/>
+    <hyperlink ref="C8" location="dbStats!B2" display="Monitoring statistics for a given database"/>
+    <hyperlink ref="C10" location="'collectionStats '!B2" display="4. Monitoring statistics for a given collection"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -790,7 +974,7 @@
   <dimension ref="B2:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -806,7 +990,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15">
+    <row r="3" spans="2:8">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1418,23 +1602,286 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="16.5">
+      <c r="B2" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="C3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="C4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="C6" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="D7" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="D8" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="D9" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="D10" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="D11" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="D12" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="D13" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="D16" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="D17" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="D18" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="D22" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="D23" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="D24" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="D25" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="D26" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="D27" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="D28" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="16.5">
+      <c r="B2" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="C3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="C4" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="C6" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="D7" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="D8" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="D9" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="D10" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="D11" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="D12" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="D13" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="D14" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="D15" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="D16" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="E19" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="E20" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" location="dbcmd.dbStats"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="16.5">
       <c r="B2" s="3" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>